--- a/Code/Results/Cases/Case_1_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.270623657956591</v>
+        <v>0.1424029619327598</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1912278206853273</v>
+        <v>0.1908596320807447</v>
       </c>
       <c r="E2">
-        <v>0.1687241470529059</v>
+        <v>0.1668666624628585</v>
       </c>
       <c r="F2">
-        <v>0.8610205569006979</v>
+        <v>1.416187686152867</v>
       </c>
       <c r="G2">
-        <v>0.0007993012251849548</v>
+        <v>0.002454875377159045</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1909946067165436</v>
+        <v>0.1877081658228192</v>
       </c>
       <c r="K2">
-        <v>2.163573321378493</v>
+        <v>0.7717270595578327</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8180333969362117</v>
+        <v>1.503750771621405</v>
       </c>
       <c r="O2">
-        <v>1.90525775385899</v>
+        <v>3.395160965842877</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2367368593780839</v>
+        <v>0.132947005609239</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1696533147259629</v>
+        <v>0.1858357018008832</v>
       </c>
       <c r="E3">
-        <v>0.1502416842766685</v>
+        <v>0.1628844645285739</v>
       </c>
       <c r="F3">
-        <v>0.8080370895071738</v>
+        <v>1.413534176495347</v>
       </c>
       <c r="G3">
-        <v>0.0008035239440793325</v>
+        <v>0.002457706336129722</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1705134210719095</v>
+        <v>0.1835469407849928</v>
       </c>
       <c r="K3">
-        <v>1.881155931125789</v>
+        <v>0.6879461982244948</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8519272025214235</v>
+        <v>1.518727073013128</v>
       </c>
       <c r="O3">
-        <v>1.814637054779126</v>
+        <v>3.400040374742616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2160676510711141</v>
+        <v>0.1272099032646565</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1565374711566534</v>
+        <v>0.1828283054996405</v>
       </c>
       <c r="E4">
-        <v>0.1390640876371947</v>
+        <v>0.1605231579989059</v>
       </c>
       <c r="F4">
-        <v>0.7770877416079713</v>
+        <v>1.412704763756821</v>
       </c>
       <c r="G4">
-        <v>0.0008062027985081645</v>
+        <v>0.002459538163753612</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1581820861039347</v>
+        <v>0.1810993989830862</v>
       </c>
       <c r="K4">
-        <v>1.708048482241679</v>
+        <v>0.636512058673901</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8738567659582941</v>
+        <v>1.528481357279112</v>
       </c>
       <c r="O4">
-        <v>1.763029739503423</v>
+        <v>3.405027370312382</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2076761805102336</v>
+        <v>0.1248894866874934</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1512227508731172</v>
+        <v>0.1816222991821093</v>
       </c>
       <c r="E5">
-        <v>0.1345485099463239</v>
+        <v>0.159582010501591</v>
       </c>
       <c r="F5">
-        <v>0.7648503693185447</v>
+        <v>1.412567895188431</v>
       </c>
       <c r="G5">
-        <v>0.0008073165136256449</v>
+        <v>0.002460308257359896</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1532133578583128</v>
+        <v>0.1801290319338449</v>
       </c>
       <c r="K5">
-        <v>1.637554307892742</v>
+        <v>0.6155552397836743</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8830677883955182</v>
+        <v>1.532596892087085</v>
       </c>
       <c r="O5">
-        <v>1.742956735332172</v>
+        <v>3.407560029755786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.206284590124298</v>
+        <v>0.1245052453511732</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1503419828359682</v>
+        <v>0.1814232250943348</v>
       </c>
       <c r="E6">
-        <v>0.1338009803927172</v>
+        <v>0.159427009409896</v>
       </c>
       <c r="F6">
-        <v>0.7628403394416665</v>
+        <v>1.412557315530506</v>
       </c>
       <c r="G6">
-        <v>0.0008075027892421152</v>
+        <v>0.002460437558941542</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1523915686847914</v>
+        <v>0.1799695356209554</v>
       </c>
       <c r="K6">
-        <v>1.625850993618769</v>
+        <v>0.6120755898822381</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8846136627964469</v>
+        <v>1.533288766785972</v>
       </c>
       <c r="O6">
-        <v>1.739679841574088</v>
+        <v>3.40801079302986</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2159543576974414</v>
+        <v>0.1271785382285202</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1564656767879313</v>
+        <v>0.1828119616720869</v>
       </c>
       <c r="E7">
-        <v>0.1390030340597228</v>
+        <v>0.1605103798552854</v>
       </c>
       <c r="F7">
-        <v>0.7769212166680859</v>
+        <v>1.412702103566097</v>
       </c>
       <c r="G7">
-        <v>0.00080621772867886</v>
+        <v>0.002459548453720816</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1581148542046833</v>
+        <v>0.1810862028420601</v>
       </c>
       <c r="K7">
-        <v>1.707097610430196</v>
+        <v>0.6362294140536449</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8739798860571035</v>
+        <v>1.528536291496447</v>
       </c>
       <c r="O7">
-        <v>1.762755224688902</v>
+        <v>3.4050595007933</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2589090140692178</v>
+        <v>0.1391283515493882</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1837599768072096</v>
+        <v>0.189111385817867</v>
       </c>
       <c r="E8">
-        <v>0.1623137661852709</v>
+        <v>0.165476232925279</v>
       </c>
       <c r="F8">
-        <v>0.8424089756201454</v>
+        <v>1.415106738033714</v>
       </c>
       <c r="G8">
-        <v>0.0008007396056747054</v>
+        <v>0.002455832106355369</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1838789029719621</v>
+        <v>0.1862510703903979</v>
       </c>
       <c r="K8">
-        <v>2.066117468203799</v>
+        <v>0.7428384572560276</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8294836552137603</v>
+        <v>1.508798672913215</v>
       </c>
       <c r="O8">
-        <v>1.873139160543445</v>
+        <v>3.396429996944477</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3443866919120069</v>
+        <v>0.1631021056845725</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2384621683703045</v>
+        <v>0.2020748494859532</v>
       </c>
       <c r="E9">
-        <v>0.2095522487867925</v>
+        <v>0.1758780626646228</v>
       </c>
       <c r="F9">
-        <v>0.9845062677444076</v>
+        <v>1.426171281000663</v>
       </c>
       <c r="G9">
-        <v>0.0007906603354509208</v>
+        <v>0.002449283853570005</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2365821554905807</v>
+        <v>0.1972327299992855</v>
       </c>
       <c r="K9">
-        <v>2.773828500389868</v>
+        <v>0.9519216557770278</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7514206327108752</v>
+        <v>1.474523216390303</v>
       </c>
       <c r="O9">
-        <v>2.124348883116625</v>
+        <v>3.39532042279842</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4081747863245937</v>
+        <v>0.1810381931966276</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2795792593211957</v>
+        <v>0.2119680826587</v>
       </c>
       <c r="E10">
-        <v>0.2454462050796238</v>
+        <v>0.1839247148822167</v>
       </c>
       <c r="F10">
-        <v>1.098906703522402</v>
+        <v>1.438177911036902</v>
       </c>
       <c r="G10">
-        <v>0.0007836302032058304</v>
+        <v>0.002444919131246361</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2769951243798943</v>
+        <v>0.205823245178081</v>
       </c>
       <c r="K10">
-        <v>3.29802987171621</v>
+        <v>1.105513991186115</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7001369533596176</v>
+        <v>1.452036246664363</v>
       </c>
       <c r="O10">
-        <v>2.33416669436258</v>
+        <v>3.404172024040747</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4374620785757912</v>
+        <v>0.1892665011768315</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2985360639852246</v>
+        <v>0.2165483077114629</v>
       </c>
       <c r="E11">
-        <v>0.262095052218335</v>
+        <v>0.187673174197684</v>
       </c>
       <c r="F11">
-        <v>1.153521359590357</v>
+        <v>1.444483729290923</v>
       </c>
       <c r="G11">
-        <v>0.0007805065440124603</v>
+        <v>0.002443029446684976</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2958346813579311</v>
+        <v>0.2098452123204737</v>
       </c>
       <c r="K11">
-        <v>3.537913000837307</v>
+        <v>1.175376011687888</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6782346611375587</v>
+        <v>1.442390484504479</v>
       </c>
       <c r="O11">
-        <v>2.436078798797809</v>
+        <v>3.410304123779781</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.448595842086192</v>
+        <v>0.1923921276373761</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3057552536796209</v>
+        <v>0.2182941120397004</v>
       </c>
       <c r="E12">
-        <v>0.2684511428710863</v>
+        <v>0.189105250112803</v>
       </c>
       <c r="F12">
-        <v>1.174608442710124</v>
+        <v>1.446993014037844</v>
       </c>
       <c r="G12">
-        <v>0.0007793337832618472</v>
+        <v>0.002442327582168071</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3030420576194217</v>
+        <v>0.2113846505606034</v>
       </c>
       <c r="K12">
-        <v>3.628998284555394</v>
+        <v>1.201828909811184</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.670156002569577</v>
+        <v>1.43882175836567</v>
       </c>
       <c r="O12">
-        <v>2.475687967548311</v>
+        <v>3.412929355018008</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4461959863168943</v>
+        <v>0.1917185376891268</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3041985906889693</v>
+        <v>0.2179176175515209</v>
       </c>
       <c r="E13">
-        <v>0.267079861808817</v>
+        <v>0.1887962664621767</v>
       </c>
       <c r="F13">
-        <v>1.170048321186556</v>
+        <v>1.446447194203301</v>
       </c>
       <c r="G13">
-        <v>0.0007795859188994065</v>
+        <v>0.002442478132225161</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3014864327037543</v>
+        <v>0.2110523753176352</v>
       </c>
       <c r="K13">
-        <v>3.60936975123667</v>
+        <v>1.196131927675026</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6718861445697542</v>
+        <v>1.439586615494761</v>
       </c>
       <c r="O13">
-        <v>2.467110712998505</v>
+        <v>3.412350476363144</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4383771653671857</v>
+        <v>0.1895234541393052</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2991291500362649</v>
+        <v>0.2166917087036353</v>
       </c>
       <c r="E14">
-        <v>0.2626169061139834</v>
+        <v>0.1877907393260543</v>
       </c>
       <c r="F14">
-        <v>1.155247861748904</v>
+        <v>1.444687736166713</v>
       </c>
       <c r="G14">
-        <v>0.0007804098614429451</v>
+        <v>0.002442971429219372</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2964261220584774</v>
+        <v>0.2099715340233388</v>
       </c>
       <c r="K14">
-        <v>3.545401441134743</v>
+        <v>1.177552361135326</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6775656506790639</v>
+        <v>1.442095201566218</v>
       </c>
       <c r="O14">
-        <v>2.439316555288798</v>
+        <v>3.410514025641817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4335936894099746</v>
+        <v>0.1881801654824784</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2960294013419116</v>
+        <v>0.2159422823669104</v>
       </c>
       <c r="E15">
-        <v>0.2598900968830264</v>
+        <v>0.1871764667273936</v>
       </c>
       <c r="F15">
-        <v>1.146236092027792</v>
+        <v>1.443625829747759</v>
       </c>
       <c r="G15">
-        <v>0.0007809158471195343</v>
+        <v>0.002443275372604498</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2933363146003956</v>
+        <v>0.2093116241179587</v>
       </c>
       <c r="K15">
-        <v>3.506252457215851</v>
+        <v>1.166171500883195</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6810728565618547</v>
+        <v>1.443642710695897</v>
       </c>
       <c r="O15">
-        <v>2.422427025481426</v>
+        <v>3.409428635233894</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4062666006185367</v>
+        <v>0.1805018279468413</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2783458323619072</v>
+        <v>0.2116703507454787</v>
       </c>
       <c r="E16">
-        <v>0.2443650691625834</v>
+        <v>0.1836815117169621</v>
       </c>
       <c r="F16">
-        <v>1.095392275585866</v>
+        <v>1.437782797560999</v>
       </c>
       <c r="G16">
-        <v>0.0007838357885527106</v>
+        <v>0.002445044549818958</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2757737291463513</v>
+        <v>0.2055626960703592</v>
       </c>
       <c r="K16">
-        <v>3.282385085810859</v>
+        <v>1.100948082492721</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7015978788205928</v>
+        <v>1.452678363379029</v>
       </c>
       <c r="O16">
-        <v>2.327643927126473</v>
+        <v>3.403813676241953</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3895745344964325</v>
+        <v>0.1758089772235394</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2675651893609086</v>
+        <v>0.2090700160709247</v>
       </c>
       <c r="E17">
-        <v>0.2349268013221746</v>
+        <v>0.1815599810487925</v>
       </c>
       <c r="F17">
-        <v>1.064884856843648</v>
+        <v>1.434414476203415</v>
       </c>
       <c r="G17">
-        <v>0.0007856457188801765</v>
+        <v>0.002446154385786335</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2651216383142554</v>
+        <v>0.2032920731297168</v>
       </c>
       <c r="K17">
-        <v>3.14544276628294</v>
+        <v>1.060932751737425</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7145617408915683</v>
+        <v>1.458370923186401</v>
       </c>
       <c r="O17">
-        <v>2.271213645317488</v>
+        <v>3.400908606882524</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.379998805699131</v>
+        <v>0.1731162882724675</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2613879290037033</v>
+        <v>0.2075818838471974</v>
       </c>
       <c r="E18">
-        <v>0.2295279769594671</v>
+        <v>0.1803480176911521</v>
       </c>
       <c r="F18">
-        <v>1.047577719742151</v>
+        <v>1.432556539638838</v>
       </c>
       <c r="G18">
-        <v>0.0007866937821221953</v>
+        <v>0.002446801759922115</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2590372125144995</v>
+        <v>0.2019968104354035</v>
       </c>
       <c r="K18">
-        <v>3.066808203397585</v>
+        <v>1.037916319331117</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.722151877037561</v>
+        <v>1.461700071870695</v>
       </c>
       <c r="O18">
-        <v>2.239359320467088</v>
+        <v>3.399435841354375</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3767608074623325</v>
+        <v>0.1722057147579363</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2593003200365871</v>
+        <v>0.2070793208340405</v>
       </c>
       <c r="E19">
-        <v>0.2277049898289647</v>
+        <v>0.1799390918331198</v>
       </c>
       <c r="F19">
-        <v>1.041757984892968</v>
+        <v>1.431941115370336</v>
       </c>
       <c r="G19">
-        <v>0.0007870498648489541</v>
+        <v>0.00244702250159799</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2569841821764669</v>
+        <v>0.2015601012903261</v>
       </c>
       <c r="K19">
-        <v>3.040205164029402</v>
+        <v>1.030123271780582</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7247444277540325</v>
+        <v>1.462836700788351</v>
       </c>
       <c r="O19">
-        <v>2.228674977226774</v>
+        <v>3.398971209901731</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3913488032377899</v>
+        <v>0.1763078663297506</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2687103465491987</v>
+        <v>0.209346049408353</v>
       </c>
       <c r="E20">
-        <v>0.2359283969128114</v>
+        <v>0.1817849644230023</v>
       </c>
       <c r="F20">
-        <v>1.068107342835233</v>
+        <v>1.434764818398932</v>
       </c>
       <c r="G20">
-        <v>0.0007854523243187675</v>
+        <v>0.002446035308140693</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2662511317141707</v>
+        <v>0.203532673318378</v>
       </c>
       <c r="K20">
-        <v>3.160006652545349</v>
+        <v>1.065192530284605</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7131678109137596</v>
+        <v>1.457759254644223</v>
       </c>
       <c r="O20">
-        <v>2.277157735903103</v>
+        <v>3.401197345603919</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4406725301199259</v>
+        <v>0.1901679404370924</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3006170277618168</v>
+        <v>0.2170514799558418</v>
       </c>
       <c r="E21">
-        <v>0.2639263402794256</v>
+        <v>0.1880857449375597</v>
       </c>
       <c r="F21">
-        <v>1.159583807051746</v>
+        <v>1.445201236255357</v>
       </c>
       <c r="G21">
-        <v>0.0007801675803331431</v>
+        <v>0.002442826164240101</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2979104053453909</v>
+        <v>0.2102885580483616</v>
       </c>
       <c r="K21">
-        <v>3.564183432062862</v>
+        <v>1.183009703039147</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6758915161692016</v>
+        <v>1.441356091724366</v>
       </c>
       <c r="O21">
-        <v>2.44745203272808</v>
+        <v>3.411045205657416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4731631242086252</v>
+        <v>0.199283011550321</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3217091492991386</v>
+        <v>0.2221536680298044</v>
       </c>
       <c r="E22">
-        <v>0.2825278302129846</v>
+        <v>0.1922771855530812</v>
       </c>
       <c r="F22">
-        <v>1.221752259968625</v>
+        <v>1.45272972215129</v>
       </c>
       <c r="G22">
-        <v>0.0007767722651173042</v>
+        <v>0.002440808733309314</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3190325429657719</v>
+        <v>0.2147995488694647</v>
       </c>
       <c r="K22">
-        <v>3.829796891194349</v>
+        <v>1.25999588506852</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6527892013870726</v>
+        <v>1.43112479009487</v>
       </c>
       <c r="O22">
-        <v>2.564724279601165</v>
+        <v>3.419248447325373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4557974164893892</v>
+        <v>0.194413000510437</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3104284658724339</v>
+        <v>0.2194245041621627</v>
       </c>
       <c r="E23">
-        <v>0.2725702092607492</v>
+        <v>0.1900334206941281</v>
       </c>
       <c r="F23">
-        <v>1.188341201847919</v>
+        <v>1.448646857783913</v>
       </c>
       <c r="G23">
-        <v>0.0007785792572687558</v>
+        <v>0.002441878181870967</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3077171050728111</v>
+        <v>0.2123831983294195</v>
       </c>
       <c r="K23">
-        <v>3.687885386533139</v>
+        <v>1.218908600375244</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6650005514007162</v>
+        <v>1.436540679022563</v>
       </c>
       <c r="O23">
-        <v>2.501556397718588</v>
+        <v>3.414708409291649</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3905465920073965</v>
+        <v>0.176082302062909</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.268192556912183</v>
+        <v>0.2092212334400898</v>
       </c>
       <c r="E24">
-        <v>0.2354754907277652</v>
+        <v>0.1816832253504472</v>
       </c>
       <c r="F24">
-        <v>1.06664973700228</v>
+        <v>1.434606183995541</v>
       </c>
       <c r="G24">
-        <v>0.0007855397345911404</v>
+        <v>0.002446089114172023</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2657403649715064</v>
+        <v>0.2034238663622148</v>
       </c>
       <c r="K24">
-        <v>3.153422025572638</v>
+        <v>1.063266718843977</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7137975805645738</v>
+        <v>1.45803561424286</v>
       </c>
       <c r="O24">
-        <v>2.27446858699426</v>
+        <v>3.401066191964361</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3211066269755207</v>
+        <v>0.1565594340400622</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2235169069217875</v>
+        <v>0.1985028700235461</v>
       </c>
       <c r="E25">
-        <v>0.1965840882238226</v>
+        <v>0.1729930521166807</v>
       </c>
       <c r="F25">
-        <v>0.9444361633914014</v>
+        <v>1.422497600953434</v>
       </c>
       <c r="G25">
-        <v>0.0007933189504237886</v>
+        <v>0.0024509766325083</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2220552105019209</v>
+        <v>0.1941703282371634</v>
       </c>
       <c r="K25">
-        <v>2.581782654480662</v>
+        <v>0.895360278988619</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7715083368789806</v>
+        <v>1.483321952556878</v>
       </c>
       <c r="O25">
-        <v>2.052266779979846</v>
+        <v>3.3939249455062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424029619327598</v>
+        <v>0.2706236579565768</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1908596320807447</v>
+        <v>0.191227820685441</v>
       </c>
       <c r="E2">
-        <v>0.1668666624628585</v>
+        <v>0.1687241470529273</v>
       </c>
       <c r="F2">
-        <v>1.416187686152867</v>
+        <v>0.8610205569006979</v>
       </c>
       <c r="G2">
-        <v>0.002454875377159045</v>
+        <v>0.0007993012252139871</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1877081658228192</v>
+        <v>0.1909946067163872</v>
       </c>
       <c r="K2">
-        <v>0.7717270595578327</v>
+        <v>2.163573321378635</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.503750771621405</v>
+        <v>0.8180333969362081</v>
       </c>
       <c r="O2">
-        <v>3.395160965842877</v>
+        <v>1.905257753859104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.132947005609239</v>
+        <v>0.2367368593779986</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1858357018008832</v>
+        <v>0.1696533147260197</v>
       </c>
       <c r="E3">
-        <v>0.1628844645285739</v>
+        <v>0.1502416842766472</v>
       </c>
       <c r="F3">
-        <v>1.413534176495347</v>
+        <v>0.8080370895071667</v>
       </c>
       <c r="G3">
-        <v>0.002457706336129722</v>
+        <v>0.0008035239440571836</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1835469407849928</v>
+        <v>0.1705134210720516</v>
       </c>
       <c r="K3">
-        <v>0.6879461982244948</v>
+        <v>1.881155931125647</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.518727073013128</v>
+        <v>0.85192720252142</v>
       </c>
       <c r="O3">
-        <v>3.400040374742616</v>
+        <v>1.814637054778984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272099032646565</v>
+        <v>0.2160676510708726</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1828283054996405</v>
+        <v>0.1565374711566676</v>
       </c>
       <c r="E4">
-        <v>0.1605231579989059</v>
+        <v>0.139064087637184</v>
       </c>
       <c r="F4">
-        <v>1.412704763756821</v>
+        <v>0.7770877416079642</v>
       </c>
       <c r="G4">
-        <v>0.002459538163753612</v>
+        <v>0.0008062027986251632</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1810993989830862</v>
+        <v>0.1581820861039489</v>
       </c>
       <c r="K4">
-        <v>0.636512058673901</v>
+        <v>1.708048482241708</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.528481357279112</v>
+        <v>0.873856765958223</v>
       </c>
       <c r="O4">
-        <v>3.405027370312382</v>
+        <v>1.763029739503395</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248894866874934</v>
+        <v>0.2076761805102478</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1816222991821093</v>
+        <v>0.151222750873103</v>
       </c>
       <c r="E5">
-        <v>0.159582010501591</v>
+        <v>0.1345485099463559</v>
       </c>
       <c r="F5">
-        <v>1.412567895188431</v>
+        <v>0.7648503693185376</v>
       </c>
       <c r="G5">
-        <v>0.002460308257359896</v>
+        <v>0.0008073165135901728</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1801290319338449</v>
+        <v>0.1532133578583199</v>
       </c>
       <c r="K5">
-        <v>0.6155552397836743</v>
+        <v>1.637554307892742</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.532596892087085</v>
+        <v>0.883067788395465</v>
       </c>
       <c r="O5">
-        <v>3.407560029755786</v>
+        <v>1.742956735332172</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245052453511732</v>
+        <v>0.2062845901242838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1814232250943348</v>
+        <v>0.1503419828362098</v>
       </c>
       <c r="E6">
-        <v>0.159427009409896</v>
+        <v>0.1338009803927349</v>
       </c>
       <c r="F6">
-        <v>1.412557315530506</v>
+        <v>0.7628403394416807</v>
       </c>
       <c r="G6">
-        <v>0.002460437558941542</v>
+        <v>0.0008075027892422981</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1799695356209554</v>
+        <v>0.1523915686848127</v>
       </c>
       <c r="K6">
-        <v>0.6120755898822381</v>
+        <v>1.625850993618968</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.533288766785972</v>
+        <v>0.8846136627964434</v>
       </c>
       <c r="O6">
-        <v>3.40801079302986</v>
+        <v>1.739679841574144</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271785382285202</v>
+        <v>0.2159543576972993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1828119616720869</v>
+        <v>0.1564656767879171</v>
       </c>
       <c r="E7">
-        <v>0.1605103798552854</v>
+        <v>0.1390030340596908</v>
       </c>
       <c r="F7">
-        <v>1.412702103566097</v>
+        <v>0.7769212166680575</v>
       </c>
       <c r="G7">
-        <v>0.002459548453720816</v>
+        <v>0.0008062177286210278</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1810862028420601</v>
+        <v>0.1581148542046762</v>
       </c>
       <c r="K7">
-        <v>0.6362294140536449</v>
+        <v>1.707097610430338</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.528536291496447</v>
+        <v>0.8739798860570929</v>
       </c>
       <c r="O7">
-        <v>3.4050595007933</v>
+        <v>1.762755224688902</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391283515493882</v>
+        <v>0.2589090140693031</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.189111385817867</v>
+        <v>0.1837599768073375</v>
       </c>
       <c r="E8">
-        <v>0.165476232925279</v>
+        <v>0.1623137661852851</v>
       </c>
       <c r="F8">
-        <v>1.415106738033714</v>
+        <v>0.8424089756201312</v>
       </c>
       <c r="G8">
-        <v>0.002455832106355369</v>
+        <v>0.0008007396056753056</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1862510703903979</v>
+        <v>0.1838789029720544</v>
       </c>
       <c r="K8">
-        <v>0.7428384572560276</v>
+        <v>2.066117468203743</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.508798672913215</v>
+        <v>0.8294836552137461</v>
       </c>
       <c r="O8">
-        <v>3.396429996944477</v>
+        <v>1.873139160543388</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1631021056845725</v>
+        <v>0.3443866919121348</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2020748494859532</v>
+        <v>0.2384621683705745</v>
       </c>
       <c r="E9">
-        <v>0.1758780626646228</v>
+        <v>0.2095522487867711</v>
       </c>
       <c r="F9">
-        <v>1.426171281000663</v>
+        <v>0.9845062677443792</v>
       </c>
       <c r="G9">
-        <v>0.002449283853570005</v>
+        <v>0.0007906603354789419</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1972327299992855</v>
+        <v>0.2365821554905523</v>
       </c>
       <c r="K9">
-        <v>0.9519216557770278</v>
+        <v>2.77382850038984</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.474523216390303</v>
+        <v>0.7514206327108752</v>
       </c>
       <c r="O9">
-        <v>3.39532042279842</v>
+        <v>2.124348883116681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1810381931966276</v>
+        <v>0.4081747863247074</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2119680826587</v>
+        <v>0.2795792593212525</v>
       </c>
       <c r="E10">
-        <v>0.1839247148822167</v>
+        <v>0.2454462050796238</v>
       </c>
       <c r="F10">
-        <v>1.438177911036902</v>
+        <v>1.098906703522402</v>
       </c>
       <c r="G10">
-        <v>0.002444919131246361</v>
+        <v>0.0007836302032653764</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.205823245178081</v>
+        <v>0.2769951243798943</v>
       </c>
       <c r="K10">
-        <v>1.105513991186115</v>
+        <v>3.298029871716153</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.452036246664363</v>
+        <v>0.7001369533596105</v>
       </c>
       <c r="O10">
-        <v>3.404172024040747</v>
+        <v>2.33416669436258</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1892665011768315</v>
+        <v>0.4374620785758054</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2165483077114629</v>
+        <v>0.2985360639852388</v>
       </c>
       <c r="E11">
-        <v>0.187673174197684</v>
+        <v>0.2620950522183279</v>
       </c>
       <c r="F11">
-        <v>1.444483729290923</v>
+        <v>1.153521359590343</v>
       </c>
       <c r="G11">
-        <v>0.002443029446684976</v>
+        <v>0.000780506544013405</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2098452123204737</v>
+        <v>0.2958346813579737</v>
       </c>
       <c r="K11">
-        <v>1.175376011687888</v>
+        <v>3.537913000837477</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.442390484504479</v>
+        <v>0.6782346611375658</v>
       </c>
       <c r="O11">
-        <v>3.410304123779781</v>
+        <v>2.43607879879778</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1923921276373761</v>
+        <v>0.4485958420861778</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2182941120397004</v>
+        <v>0.3057552536798056</v>
       </c>
       <c r="E12">
-        <v>0.189105250112803</v>
+        <v>0.2684511428710792</v>
       </c>
       <c r="F12">
-        <v>1.446993014037844</v>
+        <v>1.174608442710124</v>
       </c>
       <c r="G12">
-        <v>0.002442327582168071</v>
+        <v>0.0007793337832623138</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2113846505606034</v>
+        <v>0.3030420576193222</v>
       </c>
       <c r="K12">
-        <v>1.201828909811184</v>
+        <v>3.628998284555337</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.43882175836567</v>
+        <v>0.6701560025696338</v>
       </c>
       <c r="O12">
-        <v>3.412929355018008</v>
+        <v>2.475687967548282</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1917185376891268</v>
+        <v>0.446195986316809</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2179176175515209</v>
+        <v>0.3041985906889835</v>
       </c>
       <c r="E13">
-        <v>0.1887962664621767</v>
+        <v>0.2670798618088313</v>
       </c>
       <c r="F13">
-        <v>1.446447194203301</v>
+        <v>1.170048321186556</v>
       </c>
       <c r="G13">
-        <v>0.002442478132225161</v>
+        <v>0.0007795859189905222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2110523753176352</v>
+        <v>0.3014864327037543</v>
       </c>
       <c r="K13">
-        <v>1.196131927675026</v>
+        <v>3.609369751236613</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.439586615494761</v>
+        <v>0.6718861445697613</v>
       </c>
       <c r="O13">
-        <v>3.412350476363144</v>
+        <v>2.467110712998448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1895234541393052</v>
+        <v>0.4383771653672284</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2166917087036353</v>
+        <v>0.2991291500361228</v>
       </c>
       <c r="E14">
-        <v>0.1877907393260543</v>
+        <v>0.2626169061139905</v>
       </c>
       <c r="F14">
-        <v>1.444687736166713</v>
+        <v>1.155247861748904</v>
       </c>
       <c r="G14">
-        <v>0.002442971429219372</v>
+        <v>0.0007804098613839726</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2099715340233388</v>
+        <v>0.2964261220584916</v>
       </c>
       <c r="K14">
-        <v>1.177552361135326</v>
+        <v>3.545401441134857</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.442095201566218</v>
+        <v>0.6775656506790071</v>
       </c>
       <c r="O14">
-        <v>3.410514025641817</v>
+        <v>2.439316555288883</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1881801654824784</v>
+        <v>0.4335936894099746</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2159422823669104</v>
+        <v>0.2960294013419968</v>
       </c>
       <c r="E15">
-        <v>0.1871764667273936</v>
+        <v>0.2598900968830051</v>
       </c>
       <c r="F15">
-        <v>1.443625829747759</v>
+        <v>1.146236092027806</v>
       </c>
       <c r="G15">
-        <v>0.002443275372604498</v>
+        <v>0.0007809158470629289</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2093116241179587</v>
+        <v>0.293336314600424</v>
       </c>
       <c r="K15">
-        <v>1.166171500883195</v>
+        <v>3.506252457215908</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.443642710695897</v>
+        <v>0.6810728565617907</v>
       </c>
       <c r="O15">
-        <v>3.409428635233894</v>
+        <v>2.422427025481426</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1805018279468413</v>
+        <v>0.4062666006186362</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2116703507454787</v>
+        <v>0.2783458323619072</v>
       </c>
       <c r="E16">
-        <v>0.1836815117169621</v>
+        <v>0.2443650691625976</v>
       </c>
       <c r="F16">
-        <v>1.437782797560999</v>
+        <v>1.095392275585866</v>
       </c>
       <c r="G16">
-        <v>0.002445044549818958</v>
+        <v>0.0007838357885528412</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2055626960703592</v>
+        <v>0.2757737291462661</v>
       </c>
       <c r="K16">
-        <v>1.100948082492721</v>
+        <v>3.282385085810859</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.452678363379029</v>
+        <v>0.7015978788205928</v>
       </c>
       <c r="O16">
-        <v>3.403813676241953</v>
+        <v>2.327643927126331</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1758089772235394</v>
+        <v>0.3895745344965746</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2090700160709247</v>
+        <v>0.2675651893607238</v>
       </c>
       <c r="E17">
-        <v>0.1815599810487925</v>
+        <v>0.234926801322132</v>
       </c>
       <c r="F17">
-        <v>1.434414476203415</v>
+        <v>1.064884856843634</v>
       </c>
       <c r="G17">
-        <v>0.002446154385786335</v>
+        <v>0.0007856457188522015</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2032920731297168</v>
+        <v>0.2651216383142128</v>
       </c>
       <c r="K17">
-        <v>1.060932751737425</v>
+        <v>3.145442766283054</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.458370923186401</v>
+        <v>0.7145617408915683</v>
       </c>
       <c r="O17">
-        <v>3.400908606882524</v>
+        <v>2.271213645317459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1731162882724675</v>
+        <v>0.3799988056990031</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2075818838471974</v>
+        <v>0.2613879290037033</v>
       </c>
       <c r="E18">
-        <v>0.1803480176911521</v>
+        <v>0.2295279769594671</v>
       </c>
       <c r="F18">
-        <v>1.432556539638838</v>
+        <v>1.047577719742151</v>
       </c>
       <c r="G18">
-        <v>0.002446801759922115</v>
+        <v>0.0007866937822087039</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2019968104354035</v>
+        <v>0.259037212514599</v>
       </c>
       <c r="K18">
-        <v>1.037916319331117</v>
+        <v>3.066808203397699</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.461700071870695</v>
+        <v>0.7221518770374971</v>
       </c>
       <c r="O18">
-        <v>3.399435841354375</v>
+        <v>2.239359320467088</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1722057147579363</v>
+        <v>0.3767608074621052</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2070793208340405</v>
+        <v>0.259300320036715</v>
       </c>
       <c r="E19">
-        <v>0.1799390918331198</v>
+        <v>0.2277049898289718</v>
       </c>
       <c r="F19">
-        <v>1.431941115370336</v>
+        <v>1.041757984892968</v>
       </c>
       <c r="G19">
-        <v>0.00244702250159799</v>
+        <v>0.0007870498648780689</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2015601012903261</v>
+        <v>0.2569841821765095</v>
       </c>
       <c r="K19">
-        <v>1.030123271780582</v>
+        <v>3.040205164029459</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.462836700788351</v>
+        <v>0.7247444277540254</v>
       </c>
       <c r="O19">
-        <v>3.398971209901731</v>
+        <v>2.228674977226859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1763078663297506</v>
+        <v>0.3913488032377899</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.209346049408353</v>
+        <v>0.2687103465493408</v>
       </c>
       <c r="E20">
-        <v>0.1817849644230023</v>
+        <v>0.2359283969128114</v>
       </c>
       <c r="F20">
-        <v>1.434764818398932</v>
+        <v>1.068107342835233</v>
       </c>
       <c r="G20">
-        <v>0.002446035308140693</v>
+        <v>0.0007854523243487977</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.203532673318378</v>
+        <v>0.2662511317141991</v>
       </c>
       <c r="K20">
-        <v>1.065192530284605</v>
+        <v>3.160006652545405</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.457759254644223</v>
+        <v>0.7131678109137454</v>
       </c>
       <c r="O20">
-        <v>3.401197345603919</v>
+        <v>2.277157735903131</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1901679404370924</v>
+        <v>0.440672530119798</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2170514799558418</v>
+        <v>0.300617027761831</v>
       </c>
       <c r="E21">
-        <v>0.1880857449375597</v>
+        <v>0.2639263402793972</v>
       </c>
       <c r="F21">
-        <v>1.445201236255357</v>
+        <v>1.159583807051746</v>
       </c>
       <c r="G21">
-        <v>0.002442826164240101</v>
+        <v>0.0007801675803319124</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2102885580483616</v>
+        <v>0.2979104053454193</v>
       </c>
       <c r="K21">
-        <v>1.183009703039147</v>
+        <v>3.564183432062691</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.441356091724366</v>
+        <v>0.6758915161691306</v>
       </c>
       <c r="O21">
-        <v>3.411045205657416</v>
+        <v>2.447452032728023</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.199283011550321</v>
+        <v>0.4731631242084688</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2221536680298044</v>
+        <v>0.3217091492991244</v>
       </c>
       <c r="E22">
-        <v>0.1922771855530812</v>
+        <v>0.2825278302129703</v>
       </c>
       <c r="F22">
-        <v>1.45272972215129</v>
+        <v>1.221752259968639</v>
       </c>
       <c r="G22">
-        <v>0.002440808733309314</v>
+        <v>0.0007767722651172978</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2147995488694647</v>
+        <v>0.3190325429658287</v>
       </c>
       <c r="K22">
-        <v>1.25999588506852</v>
+        <v>3.829796891194349</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.43112479009487</v>
+        <v>0.6527892013870655</v>
       </c>
       <c r="O22">
-        <v>3.419248447325373</v>
+        <v>2.564724279601165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.194413000510437</v>
+        <v>0.455797416489375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2194245041621627</v>
+        <v>0.3104284658723628</v>
       </c>
       <c r="E23">
-        <v>0.1900334206941281</v>
+        <v>0.2725702092607563</v>
       </c>
       <c r="F23">
-        <v>1.448646857783913</v>
+        <v>1.188341201847905</v>
       </c>
       <c r="G23">
-        <v>0.002441878181870967</v>
+        <v>0.0007785792572097509</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2123831983294195</v>
+        <v>0.3077171050728964</v>
       </c>
       <c r="K23">
-        <v>1.218908600375244</v>
+        <v>3.687885386533083</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.436540679022563</v>
+        <v>0.6650005514007162</v>
       </c>
       <c r="O23">
-        <v>3.414708409291649</v>
+        <v>2.501556397718502</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.176082302062909</v>
+        <v>0.3905465920075102</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2092212334400898</v>
+        <v>0.2681925569121404</v>
       </c>
       <c r="E24">
-        <v>0.1816832253504472</v>
+        <v>0.2354754907277723</v>
       </c>
       <c r="F24">
-        <v>1.434606183995541</v>
+        <v>1.066649737002265</v>
       </c>
       <c r="G24">
-        <v>0.002446089114172023</v>
+        <v>0.0007855397345327997</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2034238663622148</v>
+        <v>0.2657403649714354</v>
       </c>
       <c r="K24">
-        <v>1.063266718843977</v>
+        <v>3.153422025572638</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.45803561424286</v>
+        <v>0.7137975805644885</v>
       </c>
       <c r="O24">
-        <v>3.401066191964361</v>
+        <v>2.27446858699426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1565594340400622</v>
+        <v>0.3211066269756202</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1985028700235461</v>
+        <v>0.2235169069217875</v>
       </c>
       <c r="E25">
-        <v>0.1729930521166807</v>
+        <v>0.1965840882237941</v>
       </c>
       <c r="F25">
-        <v>1.422497600953434</v>
+        <v>0.9444361633913871</v>
       </c>
       <c r="G25">
-        <v>0.0024509766325083</v>
+        <v>0.0007933189504797123</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1941703282371634</v>
+        <v>0.222055210501992</v>
       </c>
       <c r="K25">
-        <v>0.895360278988619</v>
+        <v>2.581782654480605</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.483321952556878</v>
+        <v>0.7715083368789593</v>
       </c>
       <c r="O25">
-        <v>3.3939249455062</v>
+        <v>2.052266779979703</v>
       </c>
     </row>
   </sheetData>
